--- a/FPT_01.06_28.06.xlsx
+++ b/FPT_01.06_28.06.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SealCia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lam-du-an\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3469583A-FDAF-4A63-A96F-0085C2878A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701A0615-0ADB-4FED-A957-B168FA6239A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Ngày</t>
   </si>
@@ -28,27 +28,12 @@
     <t>Thay đổi</t>
   </si>
   <si>
-    <t>Giao dịch ròng</t>
-  </si>
-  <si>
-    <t>Mua</t>
-  </si>
-  <si>
-    <t>Bán</t>
-  </si>
-  <si>
     <t>Room còn lại</t>
   </si>
   <si>
     <t>Đang sở hữu</t>
   </si>
   <si>
-    <t>Khối lượng</t>
-  </si>
-  <si>
-    <t>Giá trị (tỷ VNĐ)</t>
-  </si>
-  <si>
     <t>87(-0.34 %)</t>
   </si>
   <si>
@@ -107,37 +92,355 @@
   </si>
   <si>
     <t>83.5(-0.71 %)</t>
+  </si>
+  <si>
+    <t>Giao dịch ròng: Khối lượng</t>
+  </si>
+  <si>
+    <t>Giao dịch ròng: Giá trị (tỷ VNĐ)</t>
+  </si>
+  <si>
+    <t>Mua: Khối lượng</t>
+  </si>
+  <si>
+    <t>Mua: Giá trị (tỷ VNĐ)</t>
+  </si>
+  <si>
+    <t>Bán: Khối lượng</t>
+  </si>
+  <si>
+    <t>Bán: Giá trị (tỷ VNĐ)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="0.#"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="166" formatCode="#.##%"/>
-    <numFmt numFmtId="167" formatCode="0.##"/>
-    <numFmt numFmtId="168" formatCode="#,###"/>
-    <numFmt numFmtId="169" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -145,44 +448,222 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -493,95 +974,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7668CC4-02A5-4D77-B543-F096E1775431}">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="J1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9" t="s">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>24048</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>45105</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
+      <c r="C3" s="3">
+        <v>3400</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3400</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -596,24 +1091,24 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>45104</v>
+        <v>45103</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3400</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3400</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.28999999999999998</v>
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -622,24 +1117,24 @@
         <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>24048</v>
+        <v>27448</v>
       </c>
       <c r="J4" s="4">
         <v>0.49</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>45103</v>
+        <v>45100</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-12000</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>-1.02</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -647,89 +1142,89 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
+      <c r="G5" s="3">
+        <v>12000</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="I5" s="3">
-        <v>27448</v>
-      </c>
-      <c r="J5" s="4">
+        <v>39444</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.42609999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-2.2400000000000002</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G6" s="3">
+        <v>27400</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2.36</v>
+      </c>
+      <c r="I6" s="3">
+        <v>27444</v>
+      </c>
+      <c r="J6" s="4">
         <v>0.49</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>45100</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3">
-        <v>-12000</v>
-      </c>
-      <c r="D6" s="1">
-        <v>-1.02</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>12000</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1.02</v>
-      </c>
-      <c r="I6" s="3">
-        <v>39444</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0.42609999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>45099</v>
+        <v>45098</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3">
-        <v>-26000</v>
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>-2.2400000000000002</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.12</v>
-      </c>
-      <c r="G7" s="3">
-        <v>27400</v>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="I7" s="3">
-        <v>27444</v>
+        <v>1444</v>
       </c>
       <c r="J7" s="4">
         <v>0.49</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -749,25 +1244,25 @@
       <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="I8" s="3">
-        <v>1444</v>
+      <c r="I8" s="1">
+        <v>0</v>
       </c>
       <c r="J8" s="4">
         <v>0.49</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>45097</v>
+        <v>45096</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-1400</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>-0.12</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -775,11 +1270,11 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
+      <c r="G9" s="3">
+        <v>1400</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -788,18 +1283,18 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>45096</v>
+        <v>45093</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="D10" s="5">
-        <v>-0.12</v>
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-100</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-0.01</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -807,11 +1302,11 @@
       <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0.12</v>
+      <c r="G10" s="1">
+        <v>100</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.01</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -820,18 +1315,18 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
-        <v>-100</v>
-      </c>
-      <c r="D11" s="5">
-        <v>-0.01</v>
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -840,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>100</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -852,12 +1347,12 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>45092</v>
+        <v>45091</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -884,12 +1379,12 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>45091</v>
+        <v>45090</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -916,12 +1411,12 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>45090</v>
+        <v>45089</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -948,76 +1443,76 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>45266</v>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>45086</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="C15" s="3">
+        <v>-3500</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
+        <v>0.08</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4400</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>45175</v>
+        <v>0.37</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3526674</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.48680000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>45085</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="D16" s="8">
-        <v>-0.3</v>
+        <v>18</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>900</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="G16" s="3">
-        <v>4400</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0.37</v>
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
       </c>
       <c r="I16" s="3">
-        <v>3526674</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0.48679999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>45144</v>
+        <v>3523174</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.48680000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>45084</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1040,118 +1535,118 @@
       <c r="I17" s="3">
         <v>3523174</v>
       </c>
-      <c r="J17" s="6">
-        <v>0.48679999999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>45113</v>
+      <c r="J17" s="5">
+        <v>0.48680000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>45083</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1700</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="I18" s="3">
         <v>3523174</v>
       </c>
-      <c r="J18" s="6">
-        <v>0.48679999999999995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>45083</v>
+      <c r="J18" s="5">
+        <v>0.48680000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>45082</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1">
-        <v>800</v>
-      </c>
-      <c r="D19" s="5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>3523974</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.48680000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-0.15</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H20" s="1">
         <v>0.15</v>
-      </c>
-      <c r="G19" s="1">
-        <v>900</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="I19" s="3">
-        <v>3523174</v>
-      </c>
-      <c r="J19" s="6">
-        <v>0.48679999999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>45052</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>3523974</v>
       </c>
-      <c r="J20" s="6">
-        <v>0.48679999999999995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>44963</v>
+      <c r="J20" s="5">
+        <v>0.48680000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>45078</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C21" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.15</v>
+        <v>-1700</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-0.14000000000000001</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -1160,61 +1655,20 @@
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H21" s="5">
-        <v>0.15</v>
+        <v>1700</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.14000000000000001</v>
       </c>
       <c r="I21" s="3">
-        <v>3523974</v>
-      </c>
-      <c r="J21" s="6">
-        <v>0.48679999999999995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>44932</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="D22" s="5">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I22" s="3">
         <v>3522174</v>
       </c>
-      <c r="J22" s="6">
-        <v>0.48679999999999995</v>
+      <c r="J21" s="5">
+        <v>0.48680000000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FPT_01.06_28.06.xlsx
+++ b/FPT_01.06_28.06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lam-du-an\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701A0615-0ADB-4FED-A957-B168FA6239A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283FC579-C980-4D69-BDDA-0F046A6B6126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -983,7 +983,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.21875" bestFit="1" customWidth="1"/>
